--- a/Inicio/Gestión de los Interesados.xlsx
+++ b/Inicio/Gestión de los Interesados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Inicio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710C65FE-37C2-4C59-9EA6-83D37694D4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5678FB7E-44D2-4E75-BF65-DEF3D4B58138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>Proyecto</t>
   </si>
@@ -162,7 +162,10 @@
     <t>Estudiante Duoc</t>
   </si>
   <si>
-    <t>Encargado IT INTECIL</t>
+    <t>Encargado IT</t>
+  </si>
+  <si>
+    <t>Stakeholder Aprobador</t>
   </si>
 </sst>
 </file>
@@ -666,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,7 +840,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>38</v>
@@ -929,13 +932,13 @@
         <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>40</v>
@@ -952,13 +955,13 @@
         <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>40</v>
